--- a/ThaneFilteredEngg.xlsx
+++ b/ThaneFilteredEngg.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chauh\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4A7A227-EA34-446E-9574-54CD753F9AF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C923D53-B5AD-4C22-8C9B-D4785F9DD739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{5EA850B1-9729-4924-85AF-151CC6FF659F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5EA850B1-9729-4924-85AF-151CC6FF659F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="1122">
   <si>
     <t>P046745</t>
   </si>
@@ -1676,13 +1675,1741 @@
   </si>
   <si>
     <t>Vrushabh Pokharkar</t>
+  </si>
+  <si>
+    <t>ADITI NARKAR</t>
+  </si>
+  <si>
+    <t>ADITYA DEVKATE</t>
+  </si>
+  <si>
+    <t>AREEB ANSARI</t>
+  </si>
+  <si>
+    <t>ARJUN DEVKATE</t>
+  </si>
+  <si>
+    <t>AYUSHI RASAM</t>
+  </si>
+  <si>
+    <t>CHARVI KADAM</t>
+  </si>
+  <si>
+    <t>DHRUVI SINGHAVI</t>
+  </si>
+  <si>
+    <t>GAYATRI JADHAV</t>
+  </si>
+  <si>
+    <t>GURUNATH DONGRE</t>
+  </si>
+  <si>
+    <t>KKRRIINNJJAALL PPAAWWAARR</t>
+  </si>
+  <si>
+    <t>SHLOK PAWAN MANJREKAR</t>
+  </si>
+  <si>
+    <t>SAYEE DESALE</t>
+  </si>
+  <si>
+    <t>SHREEYA PATIL</t>
+  </si>
+  <si>
+    <t>SRUSHTI PATIL</t>
+  </si>
+  <si>
+    <t>TEHZEEB KHAN</t>
+  </si>
+  <si>
+    <t>TOOBA MULANI</t>
+  </si>
+  <si>
+    <t>UPASANA IYER</t>
+  </si>
+  <si>
+    <t>AASHKA KARIA</t>
+  </si>
+  <si>
+    <t>AARYAN KISHOR ZANKAR</t>
+  </si>
+  <si>
+    <t>ADITI MANAS PALO</t>
+  </si>
+  <si>
+    <t>AMISHA VYAS</t>
+  </si>
+  <si>
+    <t>ARCHIT UDAY SHIRDHANKAR</t>
+  </si>
+  <si>
+    <t>ARYAA ANAND KALPAKVIKARSHA</t>
+  </si>
+  <si>
+    <t>AROHI AMIT JOSHI</t>
+  </si>
+  <si>
+    <t>ARSH ARIF MIRKAR</t>
+  </si>
+  <si>
+    <t>ARSH PARAG KENIA</t>
+  </si>
+  <si>
+    <t>ARYAN ANIL SURYAWANSHI</t>
+  </si>
+  <si>
+    <t>ASHUTOSH NAGESH KADAM</t>
+  </si>
+  <si>
+    <t>ATHARVA PRASHANT KAMAT</t>
+  </si>
+  <si>
+    <t>BHOOMI MAHESH GUJAR</t>
+  </si>
+  <si>
+    <t>BHUVEE DIPESH KOTHARI</t>
+  </si>
+  <si>
+    <t>DARPAN MADHUKAR BANGAR</t>
+  </si>
+  <si>
+    <t>GAURANGI SINGH</t>
+  </si>
+  <si>
+    <t>HARSH PAVANKUMAR SARDA</t>
+  </si>
+  <si>
+    <t>HARSHIT RAMESH PANDEY</t>
+  </si>
+  <si>
+    <t>JANYA HITEN PARIKH</t>
+  </si>
+  <si>
+    <t>JEEVAL MAHESH PATIL</t>
+  </si>
+  <si>
+    <t>KAVYA AMIT OSWAL</t>
+  </si>
+  <si>
+    <t>MEDHANSH SHAH</t>
+  </si>
+  <si>
+    <t>NAYAN ANURAG BOHRA</t>
+  </si>
+  <si>
+    <t>NEEV SATISH MHADGUT</t>
+  </si>
+  <si>
+    <t>NIKHIL SANDEEP BINANI</t>
+  </si>
+  <si>
+    <t>NILAY SARBHENDU BAGCHI</t>
+  </si>
+  <si>
+    <t>OM DHANANJAY MULE</t>
+  </si>
+  <si>
+    <t>OM RAMESH RATHOD</t>
+  </si>
+  <si>
+    <t>PARTH DILIP ZAGADE</t>
+  </si>
+  <si>
+    <t>PRABHANSHUSHEKHAR MISHRA</t>
+  </si>
+  <si>
+    <t>PRAJAKTA SACHIN LOMATE</t>
+  </si>
+  <si>
+    <t>PREM ROHIT DAMA</t>
+  </si>
+  <si>
+    <t>RISHIKESH RAJENDRA DEHERKAR</t>
+  </si>
+  <si>
+    <t>RONAK MAHESH HOLANI</t>
+  </si>
+  <si>
+    <t>SADHVI SANTOSH SHASTRY</t>
+  </si>
+  <si>
+    <t>SAGNIK SUBHASHIS DEY</t>
+  </si>
+  <si>
+    <t>SAI SANDIP GAJMAL</t>
+  </si>
+  <si>
+    <t>SARANG SHRIHARI GAIKWAD</t>
+  </si>
+  <si>
+    <t>SHARVARI GANESH MANE</t>
+  </si>
+  <si>
+    <t>SHIVAM SANTOSH PARAB</t>
+  </si>
+  <si>
+    <t>SHUBHAM PRAKASH TATHE</t>
+  </si>
+  <si>
+    <t>SNEHA MANISH PATIL</t>
+  </si>
+  <si>
+    <t>SUJAL ASHOK KADAM</t>
+  </si>
+  <si>
+    <t>SUDHANSHU KUSHWAHA</t>
+  </si>
+  <si>
+    <t>SUKRUTII MENON</t>
+  </si>
+  <si>
+    <t>SURUD MANISH MAHAJAN</t>
+  </si>
+  <si>
+    <t>SWANANDI GOVIND BAGWE</t>
+  </si>
+  <si>
+    <t>TAANSHA NITIN GUPTA</t>
+  </si>
+  <si>
+    <t>TANUSH RUPESH NANDANWAR</t>
+  </si>
+  <si>
+    <t>TAKSHAK NIKHIL KHADE</t>
+  </si>
+  <si>
+    <t>TANISH NILESH SONAWANE</t>
+  </si>
+  <si>
+    <t>VARAD RAJENDRA WALWALKAR</t>
+  </si>
+  <si>
+    <t>VEDANT VISHAL GOLE</t>
+  </si>
+  <si>
+    <t>VEDANT MANDAR PADHAYE</t>
+  </si>
+  <si>
+    <t>VINAY YOGESH AGRAWAL</t>
+  </si>
+  <si>
+    <t>VINAYAK SUBRAMANI</t>
+  </si>
+  <si>
+    <t>VYOM PURI</t>
+  </si>
+  <si>
+    <t>YASHVI POTDAR</t>
+  </si>
+  <si>
+    <t>AARUSHI RAMBAKSH</t>
+  </si>
+  <si>
+    <t>AASTHA MAHAJAN</t>
+  </si>
+  <si>
+    <t>AAYUSH PATEL</t>
+  </si>
+  <si>
+    <t>ABHISHEK JHA</t>
+  </si>
+  <si>
+    <t>ADVAIT AMBERKAR</t>
+  </si>
+  <si>
+    <t>AKSH DHAROD</t>
+  </si>
+  <si>
+    <t>ALRIC ANIL NAZARETH</t>
+  </si>
+  <si>
+    <t>ANKIT ANIL KULKARNI</t>
+  </si>
+  <si>
+    <t>ARSH KHAN</t>
+  </si>
+  <si>
+    <t>ARSHI DHIRAWANI</t>
+  </si>
+  <si>
+    <t>ARYA THAKUR</t>
+  </si>
+  <si>
+    <t>ASMI GORE</t>
+  </si>
+  <si>
+    <t>ATHARVA BHARAMBE</t>
+  </si>
+  <si>
+    <t>ATHARVA CHALKE</t>
+  </si>
+  <si>
+    <t>AVINASH PANDEY</t>
+  </si>
+  <si>
+    <t>CHAITYA MANOJ JAIN</t>
+  </si>
+  <si>
+    <t>CHHAYA SHAILESH JAGTAP</t>
+  </si>
+  <si>
+    <t>DEVARSH GHARAD</t>
+  </si>
+  <si>
+    <t>DHANYA PUJAR</t>
+  </si>
+  <si>
+    <t>DHRUVI PATEL</t>
+  </si>
+  <si>
+    <t>DNYANIT BHUSARI</t>
+  </si>
+  <si>
+    <t>GAURAV JAIN</t>
+  </si>
+  <si>
+    <t>GEHNA MATLANI</t>
+  </si>
+  <si>
+    <t>HARSH BHOSALE</t>
+  </si>
+  <si>
+    <t>HARSH THORAT</t>
+  </si>
+  <si>
+    <t>HARSHAL KUMBHAR</t>
+  </si>
+  <si>
+    <t>HEET GANJAWALLA</t>
+  </si>
+  <si>
+    <t>ISAAC GAZULA</t>
+  </si>
+  <si>
+    <t>JANHAVI BHALERAO</t>
+  </si>
+  <si>
+    <t>JAY UJWAL JAIN</t>
+  </si>
+  <si>
+    <t>JEET DNYANESHWAR THAKARE</t>
+  </si>
+  <si>
+    <t>KANCHAN SONONE</t>
+  </si>
+  <si>
+    <t>KAUSHIK MANOJAN</t>
+  </si>
+  <si>
+    <t>KAVYA CHHEDA</t>
+  </si>
+  <si>
+    <t>MANJIRI THITE</t>
+  </si>
+  <si>
+    <t>MANTHAN PUNJABI</t>
+  </si>
+  <si>
+    <t>MANTHAN UPADHYAY</t>
+  </si>
+  <si>
+    <t>MELINA FERNANDES</t>
+  </si>
+  <si>
+    <t>NAYANSHI SINGH</t>
+  </si>
+  <si>
+    <t>NEELAKSH PANDYA</t>
+  </si>
+  <si>
+    <t>NIDHI TARE</t>
+  </si>
+  <si>
+    <t>NIMIT CHHEDA</t>
+  </si>
+  <si>
+    <t>OM BADHE</t>
+  </si>
+  <si>
+    <t>PURVA MOHITE</t>
+  </si>
+  <si>
+    <t>RUDRAKSH PATIL</t>
+  </si>
+  <si>
+    <t>SAANVI KULKARNI</t>
+  </si>
+  <si>
+    <t>SAKSHAM KUMAR</t>
+  </si>
+  <si>
+    <t>SANIKA JADHAV</t>
+  </si>
+  <si>
+    <t>SANSKRITI BORADE</t>
+  </si>
+  <si>
+    <t>SARTHAK AGIWALE</t>
+  </si>
+  <si>
+    <t>SHREYA SHERE</t>
+  </si>
+  <si>
+    <t>SIDDHI MANOJ KHETAN</t>
+  </si>
+  <si>
+    <t>SOHAM ADULKAR</t>
+  </si>
+  <si>
+    <t>SOHAM PATEL</t>
+  </si>
+  <si>
+    <t>SONISH ATTARDE</t>
+  </si>
+  <si>
+    <t>SUPASH KUMAR</t>
+  </si>
+  <si>
+    <t>SRUJAN MISHRIKOTKAR</t>
+  </si>
+  <si>
+    <t>SWARANGI VISHWASRAO</t>
+  </si>
+  <si>
+    <t>TEJAS JAYRAM MOHAPE</t>
+  </si>
+  <si>
+    <t>VISHAL KHANDE</t>
+  </si>
+  <si>
+    <t>VISHWA KACHA</t>
+  </si>
+  <si>
+    <t>YASH CHAUDHARI</t>
+  </si>
+  <si>
+    <t>YASHVI RATHOD</t>
+  </si>
+  <si>
+    <t>YASHWANT RATHOD</t>
+  </si>
+  <si>
+    <t>YOGESH JAISWAL</t>
+  </si>
+  <si>
+    <t>YUG SOLANKI</t>
+  </si>
+  <si>
+    <t>YUVIKA YADAV</t>
+  </si>
+  <si>
+    <t>AAKANSHA SUDEEP GAONKAR</t>
+  </si>
+  <si>
+    <t>AAKASH LALMAN YADAV</t>
+  </si>
+  <si>
+    <t>AARAV BALMURLI</t>
+  </si>
+  <si>
+    <t>ADITI BALKRISHNA UPADAHYA</t>
+  </si>
+  <si>
+    <t>AKHILESH SATRA</t>
+  </si>
+  <si>
+    <t>AKSHAT KALYANKAR</t>
+  </si>
+  <si>
+    <t>AMRITANSH GUPTA</t>
+  </si>
+  <si>
+    <t>ANGELO PAREKATTIL</t>
+  </si>
+  <si>
+    <t>ANIKET NEELAKANTAN</t>
+  </si>
+  <si>
+    <t>ANURAG AJIT BHIDE</t>
+  </si>
+  <si>
+    <t>APOORVA ABHIJIT KAMBLE</t>
+  </si>
+  <si>
+    <t>ARIN PARESH CHAMBAWANE</t>
+  </si>
+  <si>
+    <t>ARNAV YADAV</t>
+  </si>
+  <si>
+    <t>DHEERAJ AJAB</t>
+  </si>
+  <si>
+    <t>HARSH MISHRA</t>
+  </si>
+  <si>
+    <t>HEET SHRIPAL KANKARIYA</t>
+  </si>
+  <si>
+    <t>JANHVI ANAVKAR</t>
+  </si>
+  <si>
+    <t>JAYESH ACHARYA</t>
+  </si>
+  <si>
+    <t>KASHISH JHA</t>
+  </si>
+  <si>
+    <t>KSHITIJ NARAYAN AMIN</t>
+  </si>
+  <si>
+    <t>LISA DSSOUZA</t>
+  </si>
+  <si>
+    <t>NAVAMI BIJU NAIR</t>
+  </si>
+  <si>
+    <t>NEEL CHAMBAVANE</t>
+  </si>
+  <si>
+    <t>PRADNESH JADHAV</t>
+  </si>
+  <si>
+    <t>PRANIT NIKHIL SHETTY</t>
+  </si>
+  <si>
+    <t>PRATIK SANJAY CHAWLA</t>
+  </si>
+  <si>
+    <t>PRITHVI PRADEEP BISWAL</t>
+  </si>
+  <si>
+    <t>RANESH GOVIND MOTWANI</t>
+  </si>
+  <si>
+    <t>ROHIT PARMAR</t>
+  </si>
+  <si>
+    <t>RONAK JAYESH GADA</t>
+  </si>
+  <si>
+    <t>RUDRA RAORANE</t>
+  </si>
+  <si>
+    <t>RUJULA VENKATESH TENALI</t>
+  </si>
+  <si>
+    <t>SALONEE SHANKAR GILBILE</t>
+  </si>
+  <si>
+    <t>SAMEERA SANTOSH THAKARE</t>
+  </si>
+  <si>
+    <t>SANKET ASOLE</t>
+  </si>
+  <si>
+    <t>SANSKAR DNYANESHWAR DHONDE</t>
+  </si>
+  <si>
+    <t>SANSKRUTI RAMDAS WAYAL</t>
+  </si>
+  <si>
+    <t>SARA SANDEEP WAGH</t>
+  </si>
+  <si>
+    <t>SERINA DSILVA</t>
+  </si>
+  <si>
+    <t>SRIKAR RAM RAYAVARRAPU</t>
+  </si>
+  <si>
+    <t>SHARAYU BIRAJDAR</t>
+  </si>
+  <si>
+    <t>SHIKHAR JAISWAL</t>
+  </si>
+  <si>
+    <t>SHIVANI RAJESH PATHAK</t>
+  </si>
+  <si>
+    <t>SHRAVANI BHINGARDE</t>
+  </si>
+  <si>
+    <t>SIDDHANT LANDE</t>
+  </si>
+  <si>
+    <t>SUMIT BAGAL</t>
+  </si>
+  <si>
+    <t>TANISHA KOTIAN</t>
+  </si>
+  <si>
+    <t>VANSH PRADEEP ABROL</t>
+  </si>
+  <si>
+    <t>VARAD AJIT MORE</t>
+  </si>
+  <si>
+    <t>VIDHI DHARMENDRA JAIN</t>
+  </si>
+  <si>
+    <t>ABHAY SINGH</t>
+  </si>
+  <si>
+    <t>ANANYAA KARDALE</t>
+  </si>
+  <si>
+    <t>ANKITA CHORGHE</t>
+  </si>
+  <si>
+    <t>ARYA PARKAR</t>
+  </si>
+  <si>
+    <t>ARYAN YADAV</t>
+  </si>
+  <si>
+    <t>AVNI JAGTAP</t>
+  </si>
+  <si>
+    <t>AYAAN SHAIKH</t>
+  </si>
+  <si>
+    <t>AYMAN MAHIMKAR</t>
+  </si>
+  <si>
+    <t>GAURI BIDWAI</t>
+  </si>
+  <si>
+    <t>HARSHAL MANDAR BANE</t>
+  </si>
+  <si>
+    <t>HUMAYD MALIM</t>
+  </si>
+  <si>
+    <t>JETSON GABRIEL</t>
+  </si>
+  <si>
+    <t>JOYCE MENDES</t>
+  </si>
+  <si>
+    <t>KAREENA AJAY MATKAR</t>
+  </si>
+  <si>
+    <t>MALAY VINCHIVORA</t>
+  </si>
+  <si>
+    <t>MEHREEN SAIYED</t>
+  </si>
+  <si>
+    <t>NAUREEN FATIMA</t>
+  </si>
+  <si>
+    <t>RADHA SINGH</t>
+  </si>
+  <si>
+    <t>REHAN SUMAR</t>
+  </si>
+  <si>
+    <t>SHANTANU PAL</t>
+  </si>
+  <si>
+    <t>SHREYA PANCHAL</t>
+  </si>
+  <si>
+    <t>SIDDHANT CHAVAN</t>
+  </si>
+  <si>
+    <t>SONALI DUBEY</t>
+  </si>
+  <si>
+    <t>TANISHA NAYAK</t>
+  </si>
+  <si>
+    <t>VAISHNAVI POTE</t>
+  </si>
+  <si>
+    <t>WAQAS KHAN</t>
+  </si>
+  <si>
+    <t>YASH VAKURLE</t>
+  </si>
+  <si>
+    <t>ZUBIYA ALI</t>
+  </si>
+  <si>
+    <t>AARIT AJIT JOSHI</t>
+  </si>
+  <si>
+    <t>AARUSH ABHIJIT SAWANT</t>
+  </si>
+  <si>
+    <t>ARPIT YASHWANT YADAV</t>
+  </si>
+  <si>
+    <t>ARYAN NANJI FALIYA</t>
+  </si>
+  <si>
+    <t>ARYAN UMESH TARE</t>
+  </si>
+  <si>
+    <t>ASHUTOSH DHAKANE</t>
+  </si>
+  <si>
+    <t>DHUN PIYUSH SHAH</t>
+  </si>
+  <si>
+    <t>PARTH SACHIN DURGE</t>
+  </si>
+  <si>
+    <t>PRADNESH SHETTY</t>
+  </si>
+  <si>
+    <t>RIDDHI JITENDRA PATEL</t>
+  </si>
+  <si>
+    <t>SALONI SANTOSH JADHAV</t>
+  </si>
+  <si>
+    <t>SIDDHI BHAVANISHANKAR SHARMA</t>
+  </si>
+  <si>
+    <t>TEJASVI RADHESHYAM CHAURASIA</t>
+  </si>
+  <si>
+    <t>VEDANG VIKAS MAYEKAR</t>
+  </si>
+  <si>
+    <t>SANSKRUTI DEVKAR</t>
+  </si>
+  <si>
+    <t>ATHARVA KADAM</t>
+  </si>
+  <si>
+    <t>SMEET MUKESH KATARIA</t>
+  </si>
+  <si>
+    <t>VEERA DILIP BANDEKAR</t>
+  </si>
+  <si>
+    <t>RUDRA KASURDE</t>
+  </si>
+  <si>
+    <t>MANAV JOHAR</t>
+  </si>
+  <si>
+    <t>GAURI SHINDE</t>
+  </si>
+  <si>
+    <t>PRITTISH SARKAR</t>
+  </si>
+  <si>
+    <t>PARTH KADU</t>
+  </si>
+  <si>
+    <t>KRITIKA VISHWAKARMA</t>
+  </si>
+  <si>
+    <t>EKTA NARWALKAR</t>
+  </si>
+  <si>
+    <t>VISHWANATH GANDLA</t>
+  </si>
+  <si>
+    <t>SHIVAM PATIL</t>
+  </si>
+  <si>
+    <t>ARYAN PATIL</t>
+  </si>
+  <si>
+    <t>SRUSHTI BADGUJAR</t>
+  </si>
+  <si>
+    <t>SUCHISMITA JANA</t>
+  </si>
+  <si>
+    <t>DEVAYAN PRADHAN</t>
+  </si>
+  <si>
+    <t>SHARVIL AHER</t>
+  </si>
+  <si>
+    <t>PRINCE SINGH</t>
+  </si>
+  <si>
+    <t>ZAYED KHAN</t>
+  </si>
+  <si>
+    <t>NEEL RANGE</t>
+  </si>
+  <si>
+    <t>MANTHAN MOTE</t>
+  </si>
+  <si>
+    <t>SAMOON KALIM</t>
+  </si>
+  <si>
+    <t>SATEESHA GULATI</t>
+  </si>
+  <si>
+    <t>MOHAN JALGAONKAR</t>
+  </si>
+  <si>
+    <t>SANSKRUTI MANGALE</t>
+  </si>
+  <si>
+    <t>YASH NAITHANI</t>
+  </si>
+  <si>
+    <t>SARTHAK LAD</t>
+  </si>
+  <si>
+    <t>SANSKRITI CHAUHAN</t>
+  </si>
+  <si>
+    <t>ATHARVA SHINDE</t>
+  </si>
+  <si>
+    <t>SAIYASH POOJARI</t>
+  </si>
+  <si>
+    <t>SOHAM NAWALE</t>
+  </si>
+  <si>
+    <t>RAJAS SHINDE</t>
+  </si>
+  <si>
+    <t>SHRAVANI KALBHOR</t>
+  </si>
+  <si>
+    <t>SHREYA PADALKAR</t>
+  </si>
+  <si>
+    <t>VIDIT KHARATE</t>
+  </si>
+  <si>
+    <t>TRUPTI DHANAWADE</t>
+  </si>
+  <si>
+    <t>KRISHNA PANDEY</t>
+  </si>
+  <si>
+    <t>HIMANSHU NIKAM</t>
+  </si>
+  <si>
+    <t>ADITI TAMTA</t>
+  </si>
+  <si>
+    <t>SARVESH MURTHY</t>
+  </si>
+  <si>
+    <t>SAMEER DARVESH</t>
+  </si>
+  <si>
+    <t>PRASAD SHINDE</t>
+  </si>
+  <si>
+    <t>STUTI SAXENA</t>
+  </si>
+  <si>
+    <t>DEVARYA GANJEKAR</t>
+  </si>
+  <si>
+    <t>ATHARVA PAWAR</t>
+  </si>
+  <si>
+    <t>PRATHMESH CHALKE</t>
+  </si>
+  <si>
+    <t>YADNESH SATAM</t>
+  </si>
+  <si>
+    <t>ADVAIT CHAVAN</t>
+  </si>
+  <si>
+    <t>PREM MITTAL</t>
+  </si>
+  <si>
+    <t>RUDRA PATIL</t>
+  </si>
+  <si>
+    <t>NAIESHA THAKRE</t>
+  </si>
+  <si>
+    <t>VARSHITA NIKHARE</t>
+  </si>
+  <si>
+    <t>SANCHI TIKTE</t>
+  </si>
+  <si>
+    <t>P052707</t>
+  </si>
+  <si>
+    <t>P054830</t>
+  </si>
+  <si>
+    <t>P054196</t>
+  </si>
+  <si>
+    <t>P051618</t>
+  </si>
+  <si>
+    <t>P053776</t>
+  </si>
+  <si>
+    <t>P054095</t>
+  </si>
+  <si>
+    <t>P053405</t>
+  </si>
+  <si>
+    <t>P054205</t>
+  </si>
+  <si>
+    <t>P054306</t>
+  </si>
+  <si>
+    <t>P053337</t>
+  </si>
+  <si>
+    <t>P054490</t>
+  </si>
+  <si>
+    <t>P054100</t>
+  </si>
+  <si>
+    <t>P052405</t>
+  </si>
+  <si>
+    <t>P053623</t>
+  </si>
+  <si>
+    <t>P053693</t>
+  </si>
+  <si>
+    <t>P052823</t>
+  </si>
+  <si>
+    <t>P054204</t>
+  </si>
+  <si>
+    <t>P054467</t>
+  </si>
+  <si>
+    <t>P052716</t>
+  </si>
+  <si>
+    <t>P053420</t>
+  </si>
+  <si>
+    <t>P051472</t>
+  </si>
+  <si>
+    <t>P036819</t>
+  </si>
+  <si>
+    <t>P045748</t>
+  </si>
+  <si>
+    <t>P051620</t>
+  </si>
+  <si>
+    <t>P053272</t>
+  </si>
+  <si>
+    <t>P041530</t>
+  </si>
+  <si>
+    <t>P053442</t>
+  </si>
+  <si>
+    <t>P053410</t>
+  </si>
+  <si>
+    <t>P046838</t>
+  </si>
+  <si>
+    <t>P053117</t>
+  </si>
+  <si>
+    <t>P053439</t>
+  </si>
+  <si>
+    <t>P052731</t>
+  </si>
+  <si>
+    <t>P041295</t>
+  </si>
+  <si>
+    <t>P052835</t>
+  </si>
+  <si>
+    <t>P053461</t>
+  </si>
+  <si>
+    <t>P052449</t>
+  </si>
+  <si>
+    <t>P051645</t>
+  </si>
+  <si>
+    <t>P053223</t>
+  </si>
+  <si>
+    <t>P053567</t>
+  </si>
+  <si>
+    <t>P052318</t>
+  </si>
+  <si>
+    <t>P051736</t>
+  </si>
+  <si>
+    <t>P052831</t>
+  </si>
+  <si>
+    <t>P051664</t>
+  </si>
+  <si>
+    <t>P053278</t>
+  </si>
+  <si>
+    <t>P052655</t>
+  </si>
+  <si>
+    <t>P052103</t>
+  </si>
+  <si>
+    <t>P052399</t>
+  </si>
+  <si>
+    <t>P051647</t>
+  </si>
+  <si>
+    <t>P051817</t>
+  </si>
+  <si>
+    <t>P053288</t>
+  </si>
+  <si>
+    <t>P053286</t>
+  </si>
+  <si>
+    <t>P052036</t>
+  </si>
+  <si>
+    <t>P052911</t>
+  </si>
+  <si>
+    <t>P036915</t>
+  </si>
+  <si>
+    <t>P047364</t>
+  </si>
+  <si>
+    <t>P053484</t>
+  </si>
+  <si>
+    <t>P052930</t>
+  </si>
+  <si>
+    <t>P053497</t>
+  </si>
+  <si>
+    <t>P053483</t>
+  </si>
+  <si>
+    <t>P053287</t>
+  </si>
+  <si>
+    <t>P041962</t>
+  </si>
+  <si>
+    <t>P053777</t>
+  </si>
+  <si>
+    <t>P054057</t>
+  </si>
+  <si>
+    <t>P054305</t>
+  </si>
+  <si>
+    <t>P053873</t>
+  </si>
+  <si>
+    <t>P053876</t>
+  </si>
+  <si>
+    <t>P054494</t>
+  </si>
+  <si>
+    <t>P051636</t>
+  </si>
+  <si>
+    <t>P054423</t>
+  </si>
+  <si>
+    <t>P053587</t>
+  </si>
+  <si>
+    <t>P053152</t>
+  </si>
+  <si>
+    <t>P054452</t>
+  </si>
+  <si>
+    <t>P054491</t>
+  </si>
+  <si>
+    <t>P051897</t>
+  </si>
+  <si>
+    <t>P054600</t>
+  </si>
+  <si>
+    <t>P053944</t>
+  </si>
+  <si>
+    <t>P054063</t>
+  </si>
+  <si>
+    <t>P054207</t>
+  </si>
+  <si>
+    <t>P054071</t>
+  </si>
+  <si>
+    <t>P054073</t>
+  </si>
+  <si>
+    <t>P053774</t>
+  </si>
+  <si>
+    <t>P054424</t>
+  </si>
+  <si>
+    <t>P054197</t>
+  </si>
+  <si>
+    <t>P054493</t>
+  </si>
+  <si>
+    <t>P053578</t>
+  </si>
+  <si>
+    <t>P054554</t>
+  </si>
+  <si>
+    <t>P054538</t>
+  </si>
+  <si>
+    <t>P054475</t>
+  </si>
+  <si>
+    <t>P054510</t>
+  </si>
+  <si>
+    <t>P053149</t>
+  </si>
+  <si>
+    <t>P054302</t>
+  </si>
+  <si>
+    <t>P054450</t>
+  </si>
+  <si>
+    <t>P054453</t>
+  </si>
+  <si>
+    <t>P054303</t>
+  </si>
+  <si>
+    <t>P054062</t>
+  </si>
+  <si>
+    <t>P053881</t>
+  </si>
+  <si>
+    <t>P052404</t>
+  </si>
+  <si>
+    <t>P053402</t>
+  </si>
+  <si>
+    <t>P051997</t>
+  </si>
+  <si>
+    <t>P052446</t>
+  </si>
+  <si>
+    <t>P053336</t>
+  </si>
+  <si>
+    <t>P052104</t>
+  </si>
+  <si>
+    <t>P052120</t>
+  </si>
+  <si>
+    <t>P053071</t>
+  </si>
+  <si>
+    <t>P052792</t>
+  </si>
+  <si>
+    <t>P051735</t>
+  </si>
+  <si>
+    <t>P051646</t>
+  </si>
+  <si>
+    <t>P054198</t>
+  </si>
+  <si>
+    <t>P053739</t>
+  </si>
+  <si>
+    <t>P052840</t>
+  </si>
+  <si>
+    <t>P052322</t>
+  </si>
+  <si>
+    <t>P053779</t>
+  </si>
+  <si>
+    <t>P051619</t>
+  </si>
+  <si>
+    <t>P054192</t>
+  </si>
+  <si>
+    <t>P054069</t>
+  </si>
+  <si>
+    <t>P054613</t>
+  </si>
+  <si>
+    <t>P053319</t>
+  </si>
+  <si>
+    <t>P054088</t>
+  </si>
+  <si>
+    <t>P054363</t>
+  </si>
+  <si>
+    <t>P052833</t>
+  </si>
+  <si>
+    <t>P054304</t>
+  </si>
+  <si>
+    <t>P053795</t>
+  </si>
+  <si>
+    <t>P052693</t>
+  </si>
+  <si>
+    <t>P054601</t>
+  </si>
+  <si>
+    <t>P054455</t>
+  </si>
+  <si>
+    <t>P054608</t>
+  </si>
+  <si>
+    <t>P053884</t>
+  </si>
+  <si>
+    <t>P053726</t>
+  </si>
+  <si>
+    <t>P055012</t>
+  </si>
+  <si>
+    <t>P054425</t>
+  </si>
+  <si>
+    <t>P053295</t>
+  </si>
+  <si>
+    <t>P052392</t>
+  </si>
+  <si>
+    <t>P053561</t>
+  </si>
+  <si>
+    <t>P054612</t>
+  </si>
+  <si>
+    <t>P055078</t>
+  </si>
+  <si>
+    <t>P053404</t>
+  </si>
+  <si>
+    <t>P053624</t>
+  </si>
+  <si>
+    <t>P054616</t>
+  </si>
+  <si>
+    <t>P052695</t>
+  </si>
+  <si>
+    <t>P054109</t>
+  </si>
+  <si>
+    <t>P054201</t>
+  </si>
+  <si>
+    <t>P054064</t>
+  </si>
+  <si>
+    <t>P055203</t>
+  </si>
+  <si>
+    <t>P055519</t>
+  </si>
+  <si>
+    <t>P055304</t>
+  </si>
+  <si>
+    <t>P055730</t>
+  </si>
+  <si>
+    <t>P055679</t>
+  </si>
+  <si>
+    <t>P055948</t>
+  </si>
+  <si>
+    <t>P054828</t>
+  </si>
+  <si>
+    <t>P055715</t>
+  </si>
+  <si>
+    <t>P052531</t>
+  </si>
+  <si>
+    <t>P055303</t>
+  </si>
+  <si>
+    <t>P055486</t>
+  </si>
+  <si>
+    <t>P054868</t>
+  </si>
+  <si>
+    <t>P055859</t>
+  </si>
+  <si>
+    <t>P055749</t>
+  </si>
+  <si>
+    <t>P040199</t>
+  </si>
+  <si>
+    <t>P054108</t>
+  </si>
+  <si>
+    <t>P055547</t>
+  </si>
+  <si>
+    <t>P055711</t>
+  </si>
+  <si>
+    <t>P055760</t>
+  </si>
+  <si>
+    <t>P055114</t>
+  </si>
+  <si>
+    <t>P055710</t>
+  </si>
+  <si>
+    <t>P055333</t>
+  </si>
+  <si>
+    <t>P055741</t>
+  </si>
+  <si>
+    <t>P055944</t>
+  </si>
+  <si>
+    <t>P055332</t>
+  </si>
+  <si>
+    <t>P055009</t>
+  </si>
+  <si>
+    <t>P054068</t>
+  </si>
+  <si>
+    <t>P054606</t>
+  </si>
+  <si>
+    <t>P055391</t>
+  </si>
+  <si>
+    <t>P055335</t>
+  </si>
+  <si>
+    <t>P055757</t>
+  </si>
+  <si>
+    <t>P055511</t>
+  </si>
+  <si>
+    <t>P055487</t>
+  </si>
+  <si>
+    <t>P055123</t>
+  </si>
+  <si>
+    <t>P055942</t>
+  </si>
+  <si>
+    <t>P055260</t>
+  </si>
+  <si>
+    <t>P030037</t>
+  </si>
+  <si>
+    <t>P055181</t>
+  </si>
+  <si>
+    <t>P055744</t>
+  </si>
+  <si>
+    <t>P056232</t>
+  </si>
+  <si>
+    <t>P055709</t>
+  </si>
+  <si>
+    <t>P055752</t>
+  </si>
+  <si>
+    <t>P055388</t>
+  </si>
+  <si>
+    <t>P055581</t>
+  </si>
+  <si>
+    <t>P055550</t>
+  </si>
+  <si>
+    <t>P054787</t>
+  </si>
+  <si>
+    <t>P055745</t>
+  </si>
+  <si>
+    <t>P054964</t>
+  </si>
+  <si>
+    <t>P055195</t>
+  </si>
+  <si>
+    <t>P054872</t>
+  </si>
+  <si>
+    <t>P055115</t>
+  </si>
+  <si>
+    <t>P054451</t>
+  </si>
+  <si>
+    <t>P055755</t>
+  </si>
+  <si>
+    <t>P055952</t>
+  </si>
+  <si>
+    <t>P054195</t>
+  </si>
+  <si>
+    <t>P055011</t>
+  </si>
+  <si>
+    <t>P053073</t>
+  </si>
+  <si>
+    <t>P054934</t>
+  </si>
+  <si>
+    <t>P055283</t>
+  </si>
+  <si>
+    <t>P056233</t>
+  </si>
+  <si>
+    <t>P055037</t>
+  </si>
+  <si>
+    <t>P055329</t>
+  </si>
+  <si>
+    <t>P055689</t>
+  </si>
+  <si>
+    <t>P055582</t>
+  </si>
+  <si>
+    <t>P055135</t>
+  </si>
+  <si>
+    <t>P055578</t>
+  </si>
+  <si>
+    <t>P053110</t>
+  </si>
+  <si>
+    <t>P055212</t>
+  </si>
+  <si>
+    <t>P055065</t>
+  </si>
+  <si>
+    <t>P055300</t>
+  </si>
+  <si>
+    <t>P054737</t>
+  </si>
+  <si>
+    <t>P054916</t>
+  </si>
+  <si>
+    <t>P055692</t>
+  </si>
+  <si>
+    <t>P054618</t>
+  </si>
+  <si>
+    <t>P055754</t>
+  </si>
+  <si>
+    <t>P054933</t>
+  </si>
+  <si>
+    <t>P054829</t>
+  </si>
+  <si>
+    <t>P053150</t>
+  </si>
+  <si>
+    <t>P056463</t>
+  </si>
+  <si>
+    <t>P056464</t>
+  </si>
+  <si>
+    <t>P056738</t>
+  </si>
+  <si>
+    <t>P056658</t>
+  </si>
+  <si>
+    <t>P056712</t>
+  </si>
+  <si>
+    <t>P056890</t>
+  </si>
+  <si>
+    <t>P056447</t>
+  </si>
+  <si>
+    <t>P056735</t>
+  </si>
+  <si>
+    <t>P056684</t>
+  </si>
+  <si>
+    <t>P056462</t>
+  </si>
+  <si>
+    <t>P056665</t>
+  </si>
+  <si>
+    <t>P056483</t>
+  </si>
+  <si>
+    <t>P056711</t>
+  </si>
+  <si>
+    <t>P055116</t>
+  </si>
+  <si>
+    <t>P056891</t>
+  </si>
+  <si>
+    <t>P055750</t>
+  </si>
+  <si>
+    <t>P051549</t>
+  </si>
+  <si>
+    <t>P056557</t>
+  </si>
+  <si>
+    <t>P052011</t>
+  </si>
+  <si>
+    <t>P052385</t>
+  </si>
+  <si>
+    <t>P052534</t>
+  </si>
+  <si>
+    <t>P052401</t>
+  </si>
+  <si>
+    <t>P052533</t>
+  </si>
+  <si>
+    <t>P052758</t>
+  </si>
+  <si>
+    <t>P052791</t>
+  </si>
+  <si>
+    <t>P052902</t>
+  </si>
+  <si>
+    <t>P052281</t>
+  </si>
+  <si>
+    <t>P053638</t>
+  </si>
+  <si>
+    <t>P054438</t>
+  </si>
+  <si>
+    <t>P053644</t>
+  </si>
+  <si>
+    <t>P053738</t>
+  </si>
+  <si>
+    <t>P054433</t>
+  </si>
+  <si>
+    <t>P054437</t>
+  </si>
+  <si>
+    <t>P054797</t>
+  </si>
+  <si>
+    <t>P042271</t>
+  </si>
+  <si>
+    <t>P054799</t>
+  </si>
+  <si>
+    <t>P054856</t>
+  </si>
+  <si>
+    <t>P054874</t>
+  </si>
+  <si>
+    <t>P054975</t>
+  </si>
+  <si>
+    <t>P054978</t>
+  </si>
+  <si>
+    <t>P056679</t>
+  </si>
+  <si>
+    <t>P056375</t>
+  </si>
+  <si>
+    <t>P056681</t>
+  </si>
+  <si>
+    <t>P054979</t>
+  </si>
+  <si>
+    <t>P056367</t>
+  </si>
+  <si>
+    <t>P056627</t>
+  </si>
+  <si>
+    <t>P056631</t>
+  </si>
+  <si>
+    <t>P056392</t>
+  </si>
+  <si>
+    <t>P056366</t>
+  </si>
+  <si>
+    <t>P056630</t>
+  </si>
+  <si>
+    <t>P056634</t>
+  </si>
+  <si>
+    <t>P056636</t>
+  </si>
+  <si>
+    <t>P056894</t>
+  </si>
+  <si>
+    <t>P057120</t>
+  </si>
+  <si>
+    <t>P056893</t>
+  </si>
+  <si>
+    <t>P056637</t>
+  </si>
+  <si>
+    <t>P056371</t>
+  </si>
+  <si>
+    <t>P056000</t>
+  </si>
+  <si>
+    <t>P055137</t>
+  </si>
+  <si>
+    <t>P055117</t>
+  </si>
+  <si>
+    <t>P055118</t>
+  </si>
+  <si>
+    <t>P055136</t>
+  </si>
+  <si>
+    <t>P054976</t>
+  </si>
+  <si>
+    <t>P054435</t>
+  </si>
+  <si>
+    <t>P054434</t>
+  </si>
+  <si>
+    <t>P052892</t>
+  </si>
+  <si>
+    <t>P053051</t>
+  </si>
+  <si>
+    <t>P057854</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1702,8 +3429,19 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1716,8 +3454,14 @@
         <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAFAFA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1749,11 +3493,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1766,6 +3525,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2080,25 +3848,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3587209-0E1B-46C7-9791-217F74682862}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{320807C7-2781-411B-9A47-F39AAB0EB4E3}">
-  <dimension ref="A1:B273"/>
+  <dimension ref="A1:B561"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" activeCellId="1" sqref="B10 J5"/>
+      <selection activeCell="C268" sqref="C268"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4292,6 +6046,2310 @@
         <v>545</v>
       </c>
     </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A274" s="5" t="s">
+        <v>834</v>
+      </c>
+      <c r="B274" s="5" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A275" s="5" t="s">
+        <v>835</v>
+      </c>
+      <c r="B275" s="5" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A276" s="5" t="s">
+        <v>836</v>
+      </c>
+      <c r="B276" s="5" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A277" s="5" t="s">
+        <v>837</v>
+      </c>
+      <c r="B277" s="5" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A278" s="5" t="s">
+        <v>838</v>
+      </c>
+      <c r="B278" s="5" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A279" s="5" t="s">
+        <v>839</v>
+      </c>
+      <c r="B279" s="5" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A280" s="5" t="s">
+        <v>840</v>
+      </c>
+      <c r="B280" s="5" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A281" s="5" t="s">
+        <v>841</v>
+      </c>
+      <c r="B281" s="5" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A282" s="5" t="s">
+        <v>842</v>
+      </c>
+      <c r="B282" s="5" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A283" s="5" t="s">
+        <v>843</v>
+      </c>
+      <c r="B283" s="5" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A284" s="5" t="s">
+        <v>844</v>
+      </c>
+      <c r="B284" s="5" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A285" s="5" t="s">
+        <v>845</v>
+      </c>
+      <c r="B285" s="5" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A286" s="5" t="s">
+        <v>846</v>
+      </c>
+      <c r="B286" s="5" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A287" s="5" t="s">
+        <v>847</v>
+      </c>
+      <c r="B287" s="5" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A288" s="5" t="s">
+        <v>848</v>
+      </c>
+      <c r="B288" s="5" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A289" s="5" t="s">
+        <v>849</v>
+      </c>
+      <c r="B289" s="5" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A290" s="5" t="s">
+        <v>850</v>
+      </c>
+      <c r="B290" s="5" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A291" s="5" t="s">
+        <v>851</v>
+      </c>
+      <c r="B291" s="5" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A292" s="5" t="s">
+        <v>852</v>
+      </c>
+      <c r="B292" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A293" s="5" t="s">
+        <v>853</v>
+      </c>
+      <c r="B293" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A294" s="5" t="s">
+        <v>854</v>
+      </c>
+      <c r="B294" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A295" s="5" t="s">
+        <v>855</v>
+      </c>
+      <c r="B295" s="5" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A296" s="5" t="s">
+        <v>856</v>
+      </c>
+      <c r="B296" s="5" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A297" s="5" t="s">
+        <v>857</v>
+      </c>
+      <c r="B297" s="5" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A298" s="5" t="s">
+        <v>858</v>
+      </c>
+      <c r="B298" s="5" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A299" s="5" t="s">
+        <v>859</v>
+      </c>
+      <c r="B299" s="5" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A300" s="5" t="s">
+        <v>860</v>
+      </c>
+      <c r="B300" s="5" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A301" s="5" t="s">
+        <v>861</v>
+      </c>
+      <c r="B301" s="5" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A302" s="5" t="s">
+        <v>862</v>
+      </c>
+      <c r="B302" s="5" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A303" s="5" t="s">
+        <v>863</v>
+      </c>
+      <c r="B303" s="5" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A304" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="B304" s="5" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A305" s="5" t="s">
+        <v>865</v>
+      </c>
+      <c r="B305" s="5" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A306" s="5" t="s">
+        <v>866</v>
+      </c>
+      <c r="B306" s="5" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A307" s="5" t="s">
+        <v>867</v>
+      </c>
+      <c r="B307" s="5" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A308" s="5" t="s">
+        <v>868</v>
+      </c>
+      <c r="B308" s="5" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A309" s="5" t="s">
+        <v>869</v>
+      </c>
+      <c r="B309" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A310" s="5" t="s">
+        <v>870</v>
+      </c>
+      <c r="B310" s="5" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A311" s="5" t="s">
+        <v>871</v>
+      </c>
+      <c r="B311" s="5" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A312" s="5" t="s">
+        <v>872</v>
+      </c>
+      <c r="B312" s="5" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A313" s="5" t="s">
+        <v>873</v>
+      </c>
+      <c r="B313" s="5" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A314" s="5" t="s">
+        <v>874</v>
+      </c>
+      <c r="B314" s="5" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A315" s="5" t="s">
+        <v>875</v>
+      </c>
+      <c r="B315" s="5" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A316" s="5" t="s">
+        <v>876</v>
+      </c>
+      <c r="B316" s="5" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A317" s="5" t="s">
+        <v>877</v>
+      </c>
+      <c r="B317" s="5" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A318" s="5" t="s">
+        <v>878</v>
+      </c>
+      <c r="B318" s="5" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A319" s="5" t="s">
+        <v>879</v>
+      </c>
+      <c r="B319" s="5" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A320" s="5" t="s">
+        <v>880</v>
+      </c>
+      <c r="B320" s="5" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A321" s="5" t="s">
+        <v>881</v>
+      </c>
+      <c r="B321" s="5" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A322" s="5" t="s">
+        <v>882</v>
+      </c>
+      <c r="B322" s="5" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A323" s="5" t="s">
+        <v>883</v>
+      </c>
+      <c r="B323" s="5" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A324" s="5" t="s">
+        <v>884</v>
+      </c>
+      <c r="B324" s="5" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A325" s="5" t="s">
+        <v>885</v>
+      </c>
+      <c r="B325" s="5" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A326" s="5" t="s">
+        <v>886</v>
+      </c>
+      <c r="B326" s="5" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A327" s="5" t="s">
+        <v>887</v>
+      </c>
+      <c r="B327" s="5" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A328" s="5" t="s">
+        <v>888</v>
+      </c>
+      <c r="B328" s="5" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A329" s="5" t="s">
+        <v>889</v>
+      </c>
+      <c r="B329" s="5" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A330" s="5" t="s">
+        <v>890</v>
+      </c>
+      <c r="B330" s="5" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A331" s="5" t="s">
+        <v>891</v>
+      </c>
+      <c r="B331" s="5" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A332" s="5" t="s">
+        <v>892</v>
+      </c>
+      <c r="B332" s="5" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A333" s="5" t="s">
+        <v>893</v>
+      </c>
+      <c r="B333" s="5" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A334" s="5" t="s">
+        <v>894</v>
+      </c>
+      <c r="B334" s="5" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A335" s="5" t="s">
+        <v>895</v>
+      </c>
+      <c r="B335" s="5" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A336" s="5" t="s">
+        <v>896</v>
+      </c>
+      <c r="B336" s="5" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A337" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="B337" s="5" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A338" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="B338" s="5" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A339" s="5" t="s">
+        <v>899</v>
+      </c>
+      <c r="B339" s="5" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A340" s="5" t="s">
+        <v>900</v>
+      </c>
+      <c r="B340" s="5" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A341" s="5" t="s">
+        <v>901</v>
+      </c>
+      <c r="B341" s="5" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A342" s="5" t="s">
+        <v>902</v>
+      </c>
+      <c r="B342" s="5" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A343" s="5" t="s">
+        <v>903</v>
+      </c>
+      <c r="B343" s="5" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A344" s="5" t="s">
+        <v>904</v>
+      </c>
+      <c r="B344" s="5" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A345" s="5" t="s">
+        <v>905</v>
+      </c>
+      <c r="B345" s="5" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A346" s="5" t="s">
+        <v>906</v>
+      </c>
+      <c r="B346" s="5" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A347" s="5" t="s">
+        <v>907</v>
+      </c>
+      <c r="B347" s="5" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A348" s="5" t="s">
+        <v>908</v>
+      </c>
+      <c r="B348" s="5" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A349" s="5" t="s">
+        <v>909</v>
+      </c>
+      <c r="B349" s="5" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A350" s="5" t="s">
+        <v>910</v>
+      </c>
+      <c r="B350" s="5" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A351" s="5" t="s">
+        <v>911</v>
+      </c>
+      <c r="B351" s="5" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A352" s="5" t="s">
+        <v>912</v>
+      </c>
+      <c r="B352" s="5" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A353" s="5" t="s">
+        <v>913</v>
+      </c>
+      <c r="B353" s="5" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A354" s="5" t="s">
+        <v>914</v>
+      </c>
+      <c r="B354" s="5" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A355" s="5" t="s">
+        <v>915</v>
+      </c>
+      <c r="B355" s="5" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A356" s="5" t="s">
+        <v>916</v>
+      </c>
+      <c r="B356" s="5" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A357" s="5" t="s">
+        <v>917</v>
+      </c>
+      <c r="B357" s="5" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A358" s="5" t="s">
+        <v>918</v>
+      </c>
+      <c r="B358" s="5" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A359" s="5" t="s">
+        <v>919</v>
+      </c>
+      <c r="B359" s="5" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A360" s="5" t="s">
+        <v>920</v>
+      </c>
+      <c r="B360" s="5" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A361" s="5" t="s">
+        <v>921</v>
+      </c>
+      <c r="B361" s="5" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A362" s="5" t="s">
+        <v>922</v>
+      </c>
+      <c r="B362" s="5" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A363" s="5" t="s">
+        <v>923</v>
+      </c>
+      <c r="B363" s="5" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A364" s="5" t="s">
+        <v>924</v>
+      </c>
+      <c r="B364" s="5" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A365" s="5" t="s">
+        <v>925</v>
+      </c>
+      <c r="B365" s="5" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A366" s="5" t="s">
+        <v>926</v>
+      </c>
+      <c r="B366" s="5" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A367" s="5" t="s">
+        <v>927</v>
+      </c>
+      <c r="B367" s="5" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A368" s="5" t="s">
+        <v>928</v>
+      </c>
+      <c r="B368" s="5" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A369" s="5" t="s">
+        <v>929</v>
+      </c>
+      <c r="B369" s="5" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A370" s="5" t="s">
+        <v>930</v>
+      </c>
+      <c r="B370" s="5" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A371" s="5" t="s">
+        <v>931</v>
+      </c>
+      <c r="B371" s="5" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A372" s="5" t="s">
+        <v>932</v>
+      </c>
+      <c r="B372" s="5" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A373" s="5" t="s">
+        <v>933</v>
+      </c>
+      <c r="B373" s="5" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A374" s="5" t="s">
+        <v>934</v>
+      </c>
+      <c r="B374" s="5" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A375" s="5" t="s">
+        <v>935</v>
+      </c>
+      <c r="B375" s="5" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A376" s="5" t="s">
+        <v>936</v>
+      </c>
+      <c r="B376" s="5" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A377" s="5" t="s">
+        <v>937</v>
+      </c>
+      <c r="B377" s="5" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A378" s="5" t="s">
+        <v>938</v>
+      </c>
+      <c r="B378" s="5" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A379" s="5" t="s">
+        <v>939</v>
+      </c>
+      <c r="B379" s="5" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A380" s="5" t="s">
+        <v>940</v>
+      </c>
+      <c r="B380" s="5" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A381" s="5" t="s">
+        <v>941</v>
+      </c>
+      <c r="B381" s="5" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A382" s="5" t="s">
+        <v>942</v>
+      </c>
+      <c r="B382" s="5" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A383" s="5" t="s">
+        <v>943</v>
+      </c>
+      <c r="B383" s="5" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A384" s="5" t="s">
+        <v>944</v>
+      </c>
+      <c r="B384" s="5" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A385" s="5" t="s">
+        <v>945</v>
+      </c>
+      <c r="B385" s="5" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A386" s="5" t="s">
+        <v>946</v>
+      </c>
+      <c r="B386" s="5" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A387" s="5" t="s">
+        <v>947</v>
+      </c>
+      <c r="B387" s="5" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A388" s="5" t="s">
+        <v>948</v>
+      </c>
+      <c r="B388" s="5" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A389" s="5" t="s">
+        <v>949</v>
+      </c>
+      <c r="B389" s="5" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A390" s="5" t="s">
+        <v>950</v>
+      </c>
+      <c r="B390" s="5" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A391" s="5" t="s">
+        <v>951</v>
+      </c>
+      <c r="B391" s="5" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A392" s="5" t="s">
+        <v>952</v>
+      </c>
+      <c r="B392" s="5" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A393" s="5" t="s">
+        <v>953</v>
+      </c>
+      <c r="B393" s="5" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A394" s="5" t="s">
+        <v>954</v>
+      </c>
+      <c r="B394" s="5" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A395" s="5" t="s">
+        <v>955</v>
+      </c>
+      <c r="B395" s="5" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A396" s="5" t="s">
+        <v>956</v>
+      </c>
+      <c r="B396" s="5" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A397" s="5" t="s">
+        <v>957</v>
+      </c>
+      <c r="B397" s="5" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A398" s="5" t="s">
+        <v>958</v>
+      </c>
+      <c r="B398" s="5" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A399" s="5" t="s">
+        <v>959</v>
+      </c>
+      <c r="B399" s="5" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A400" s="5" t="s">
+        <v>960</v>
+      </c>
+      <c r="B400" s="5" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A401" s="5" t="s">
+        <v>961</v>
+      </c>
+      <c r="B401" s="5" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A402" s="5" t="s">
+        <v>962</v>
+      </c>
+      <c r="B402" s="5" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A403" s="5" t="s">
+        <v>963</v>
+      </c>
+      <c r="B403" s="5" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A404" s="5" t="s">
+        <v>964</v>
+      </c>
+      <c r="B404" s="5" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A405" s="6" t="s">
+        <v>965</v>
+      </c>
+      <c r="B405" s="5" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A406" s="5" t="s">
+        <v>966</v>
+      </c>
+      <c r="B406" s="5" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A407" s="5" t="s">
+        <v>967</v>
+      </c>
+      <c r="B407" s="5" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A408" s="5" t="s">
+        <v>968</v>
+      </c>
+      <c r="B408" s="5" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A409" s="5" t="s">
+        <v>969</v>
+      </c>
+      <c r="B409" s="5" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A410" s="5" t="s">
+        <v>970</v>
+      </c>
+      <c r="B410" s="5" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A411" s="5" t="s">
+        <v>971</v>
+      </c>
+      <c r="B411" s="5" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A412" s="5" t="s">
+        <v>972</v>
+      </c>
+      <c r="B412" s="5" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A413" s="5" t="s">
+        <v>973</v>
+      </c>
+      <c r="B413" s="5" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A414" s="5" t="s">
+        <v>974</v>
+      </c>
+      <c r="B414" s="5" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A415" s="5" t="s">
+        <v>975</v>
+      </c>
+      <c r="B415" s="5" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A416" s="5" t="s">
+        <v>976</v>
+      </c>
+      <c r="B416" s="5" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A417" s="5" t="s">
+        <v>977</v>
+      </c>
+      <c r="B417" s="5" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A418" s="5" t="s">
+        <v>978</v>
+      </c>
+      <c r="B418" s="5" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A419" s="5" t="s">
+        <v>979</v>
+      </c>
+      <c r="B419" s="5" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A420" s="5" t="s">
+        <v>980</v>
+      </c>
+      <c r="B420" s="5" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A421" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="B421" s="5" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A422" s="5" t="s">
+        <v>982</v>
+      </c>
+      <c r="B422" s="5" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A423" s="5" t="s">
+        <v>983</v>
+      </c>
+      <c r="B423" s="5" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A424" s="5" t="s">
+        <v>984</v>
+      </c>
+      <c r="B424" s="5" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A425" s="5" t="s">
+        <v>985</v>
+      </c>
+      <c r="B425" s="5" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A426" s="5" t="s">
+        <v>986</v>
+      </c>
+      <c r="B426" s="5" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A427" s="5" t="s">
+        <v>987</v>
+      </c>
+      <c r="B427" s="5" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A428" s="5" t="s">
+        <v>988</v>
+      </c>
+      <c r="B428" s="5" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A429" s="5" t="s">
+        <v>989</v>
+      </c>
+      <c r="B429" s="5" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A430" s="5" t="s">
+        <v>990</v>
+      </c>
+      <c r="B430" s="5" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A431" s="5" t="s">
+        <v>991</v>
+      </c>
+      <c r="B431" s="5" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A432" s="5" t="s">
+        <v>992</v>
+      </c>
+      <c r="B432" s="5" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A433" s="5" t="s">
+        <v>993</v>
+      </c>
+      <c r="B433" s="5" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A434" s="5" t="s">
+        <v>994</v>
+      </c>
+      <c r="B434" s="5" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A435" s="5" t="s">
+        <v>995</v>
+      </c>
+      <c r="B435" s="5" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A436" s="5" t="s">
+        <v>996</v>
+      </c>
+      <c r="B436" s="5" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A437" s="5" t="s">
+        <v>997</v>
+      </c>
+      <c r="B437" s="5" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A438" s="5" t="s">
+        <v>998</v>
+      </c>
+      <c r="B438" s="5" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A439" s="5" t="s">
+        <v>999</v>
+      </c>
+      <c r="B439" s="5" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A440" s="5" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B440" s="5" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A441" s="5" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B441" s="5" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A442" s="5" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B442" s="5" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A443" s="5" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B443" s="5" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A444" s="5" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B444" s="5" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A445" s="5" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B445" s="5" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A446" s="5" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B446" s="5" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A447" s="5" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B447" s="5" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A448" s="5" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B448" s="5" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A449" s="5" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B449" s="5" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A450" s="5" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B450" s="5" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A451" s="5" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B451" s="5" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A452" s="5" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B452" s="5" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A453" s="5" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B453" s="5" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A454" s="5" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B454" s="5" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A455" s="5" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B455" s="5" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A456" s="5" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B456" s="5" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A457" s="5" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B457" s="5" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A458" s="5" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B458" s="5" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A459" s="5" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B459" s="5" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A460" s="5" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B460" s="5" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A461" s="5" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B461" s="5" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A462" s="5" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B462" s="5" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A463" s="5" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B463" s="5" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A464" s="5" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B464" s="5" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A465" s="7" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B465" s="5" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A466" s="5" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B466" s="5" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A467" s="5" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B467" s="5" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A468" s="5" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B468" s="5" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A469" s="5" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B469" s="5" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A470" s="5" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B470" s="5" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A471" s="5" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B471" s="5" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A472" s="5" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B472" s="5" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A473" s="5" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B473" s="5" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A474" s="5" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B474" s="5" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A475" s="5" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B475" s="5" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A476" s="5" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B476" s="5" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A477" s="5" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B477" s="5" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A478" s="5" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B478" s="5" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A479" s="5" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B479" s="5" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A480" s="5" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B480" s="5" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A481" s="5" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B481" s="5" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A482" s="7" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B482" s="5" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A483" s="5" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B483" s="5" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A484" s="5" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B484" s="5" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A485" s="5" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B485" s="5" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A486" s="5" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B486" s="5" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A487" s="5" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B487" s="5" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A488" s="5" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B488" s="5" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A489" s="5" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B489" s="5" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A490" s="5" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B490" s="5" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A491" s="5" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B491" s="5" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A492" s="5" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B492" s="5" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A493" s="5" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B493" s="5" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A494" s="5" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B494" s="5" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A495" s="5" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B495" s="5" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A496" s="5" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B496" s="5" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A497" s="5" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B497" s="5" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A498" s="5" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B498" s="5" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A499" s="5" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B499" s="5" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A500" s="5" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B500" s="5" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A501" s="5" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B501" s="5" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A502" s="5" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B502" s="5" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A503" s="5" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B503" s="5" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A504" s="5" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B504" s="5" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A505" s="5" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B505" s="5" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A506" s="5" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B506" s="5" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A507" s="5" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B507" s="5" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A508" s="5" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B508" s="5" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A509" s="5" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B509" s="5" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A510" s="5" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B510" s="5" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A511" s="5" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B511" s="5" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A512" s="5" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B512" s="5" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A513" s="5" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B513" s="5" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A514" s="5" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B514" s="5" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A515" s="5" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B515" s="5" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A516" s="5" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B516" s="5" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A517" s="5" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B517" s="5" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A518" s="5" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B518" s="5" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A519" s="5" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B519" s="5" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A520" s="5" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B520" s="5" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A521" s="5" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B521" s="5" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A522" s="5" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B522" s="5" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A523" s="5" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B523" s="5" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A524" s="5" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B524" s="5" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A525" s="5" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B525" s="5" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A526" s="5" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B526" s="5" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A527" s="5" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B527" s="5" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A528" s="5" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B528" s="5" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A529" s="5" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B529" s="5" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A530" s="5" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B530" s="5" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A531" s="5" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B531" s="5" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A532" s="5" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B532" s="5" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A533" s="5" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B533" s="5" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A534" s="5" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B534" s="5" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A535" s="5" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B535" s="5" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A536" s="5" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B536" s="5" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A537" s="5" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B537" s="5" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A538" s="5" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B538" s="5" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A539" s="5" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B539" s="5" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A540" s="5" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B540" s="5" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A541" s="5" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B541" s="5" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A542" s="5" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B542" s="5" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A543" s="5" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B543" s="5" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A544" s="5" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B544" s="5" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A545" s="5" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B545" s="5" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A546" s="5" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B546" s="5" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A547" s="5" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B547" s="5" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A548" s="5" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B548" s="5" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A549" s="5" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B549" s="5" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A550" s="5" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B550" s="5" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A551" s="5" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B551" s="5" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A552" s="5" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B552" s="5" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A553" s="5" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B553" s="5" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A554" s="5" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B554" s="5" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A555" s="5" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B555" s="5" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A556" s="5" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B556" s="5" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A557" s="5" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B557" s="5" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A558" s="5" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B558" s="5" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A559" s="5" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B559" s="5" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A560" s="5" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B560" s="5" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A561" s="5" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B561" s="5" t="s">
+        <v>833</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
